--- a/Datos/Database by set/Set with text box/Xlsx sets/Hour of Devastation Tokens (THOU).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Hour of Devastation Tokens (THOU).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A52"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,357 +444,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Adorned Pouncer</t>
+          <t>('Adorned Pouncer', ['Token Creature — Zombie Cat', 'Double strike', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Token Creature — Zombie Cat</t>
+          <t>('Champion of Wits', ['Token Creature — Zombie Naga Wizard', 'When Champion of Wits enters the battlefield, you may draw cards equal to its power. If you do, discard two cards.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Double strike</t>
+          <t>('Dreamstealer', ['Token Creature — Zombie Human Wizard', 'Menace', 'Whenever Dreamstealer deals combat damage to a player, that player discards that many cards.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4/4</t>
+          <t>('Earthshaker Khenra', ['Token Creature — Zombie Jackal Warrior', 'Haste', 'When Earthshaker Khenra enters the battlefield, target creature with power less than or equal to Earthshaker Khenra’s power can’t block this turn.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Champion of Wits</t>
+          <t>('Horse', ['Token Creature — Horse', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Token Creature — Zombie Naga Wizard</t>
+          <t>('Insect', ['Token Creature — Insect', 'Flying, haste', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>When Champion of Wits enters the battlefield, you may draw cards equal to its power. If you do, discard two cards.</t>
+          <t>('Proven Combatant', ['Token Creature — Zombie Human Warrior', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4/4</t>
+          <t>('Punchcard', ['Card'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dreamstealer</t>
+          <t>('Resilient Khenra', ['Token Creature — Zombie Jackal Wizard', 'When Resilient Khenra enters the battlefield, you may have target creature get +X/+X until end of turn, where X is Resilient Khenra’s power.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Token Creature — Zombie Human Wizard</t>
+          <t>('Sinuous Striker', ['Token Creature — Zombie Naga Warrior', '{U}: Sinuous Striker gets +1/-1 until end of turn.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Menace</t>
+          <t>('Snake', ['Token Creature — Snake', '5/4'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Whenever Dreamstealer deals combat damage to a player, that player discards that many cards.</t>
+          <t>('Steadfast Sentinel', ['Token Creature — Zombie Human Cleric', 'Vigilance', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Earthshaker Khenra</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Token Creature — Zombie Jackal Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Haste</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>When Earthshaker Khenra enters the battlefield, target creature with power less than or equal to Earthshaker Khenra’s power can’t block this turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Horse</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Token Creature — Horse</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>5/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Insect</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Token Creature — Insect</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Flying, haste</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Proven Combatant</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Token Creature — Zombie Human Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Punchcard</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Punchcard</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Resilient Khenra</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Token Creature — Zombie Jackal Wizard</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>When Resilient Khenra enters the battlefield, you may have target creature get +X/+X until end of turn, where X is Resilient Khenra’s power.</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Sinuous Striker</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Token Creature — Zombie Naga Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>{U}: Sinuous Striker gets +1/-1 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Snake</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Token Creature — Snake</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>5/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Steadfast Sentinel</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Token Creature — Zombie Human Cleric</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Vigilance</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Sunscourge Champion</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Token Creature — Zombie Human Wizard</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>When Sunscourge Champion enters the battlefield, you gain life equal to its power.</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>4/4</t>
+          <t>('Sunscourge Champion', ['Token Creature — Zombie Human Wizard', 'When Sunscourge Champion enters the battlefield, you gain life equal to its power.', '4/4'])</t>
         </is>
       </c>
     </row>
